--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,1357 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6377</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6107</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.05</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2245,13 +2288,613 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.23</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.05</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2888,13 +2953,857 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8096</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5175</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5175</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3766</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1290</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006781</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.43</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8939</t>
+          <t>1.8206</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -941,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>011162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>博时港股通领先趋势混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.26</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.56</t>
+          <t>82.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3554</t>
+          <t>1.6971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -989,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.90</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2109</t>
+          <t>1.4144</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1027,26 +729,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.90</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2109</t>
+          <t>1.4144</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1055,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>012588</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>32.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8321</t>
+          <t>0.6615</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1093,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.40</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7188</t>
+          <t>0.6255</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1131,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6650</t>
+          <t>0.6255</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1169,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6377</t>
+          <t>0.6049</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1207,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6377</t>
+          <t>0.5181</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1245,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6107</t>
+          <t>0.4004</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1283,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>011163</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>博时港股通领先趋势混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.83</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>82.15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4861</t>
+          <t>0.3350</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1321,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011738</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3996</t>
+          <t>0.1987</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1359,32 +1061,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011163</t>
+          <t>012924</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合C</t>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>80.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3685</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1397,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>012925</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>80.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2323</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1435,36 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2310</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1473,36 +1175,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011146</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票A</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>88.31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2213</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1511,36 +1213,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>012589</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合型证券投资基金</t>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1885</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1549,36 +1251,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011739</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49.80</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1758</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1587,36 +1289,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.16</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1693</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1625,36 +1327,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1443</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1663,36 +1365,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011147</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信气候变化责任投资股票C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1260</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1701,492 +1403,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.75</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>84.75</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>77.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006781</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011158</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>弘毅远方港股通智选领航混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.04</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000927</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>78.88</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>86.16</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2877,36 +2123,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>011162</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>博时港股通领先趋势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>32.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8206</t>
+          <t>1.8939</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2915,36 +2161,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>46.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.15</t>
+          <t>88.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6971</t>
+          <t>1.3554</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2963,26 +2209,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>41.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4144</t>
+          <t>1.2109</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3001,26 +2247,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>41.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4144</t>
+          <t>1.2109</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3029,36 +2275,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012588</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金A</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32.91</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6615</t>
+          <t>0.8321</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3067,36 +2313,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>25.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6255</t>
+          <t>0.7188</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3105,36 +2351,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6255</t>
+          <t>0.6650</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3143,36 +2389,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010714</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红远见价值混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6049</t>
+          <t>0.6377</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3181,36 +2427,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5181</t>
+          <t>0.6377</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3219,36 +2465,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>010714</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>东方红远见价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>77.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4004</t>
+          <t>0.6107</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -3257,36 +2503,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011163</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>23.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.15</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3350</t>
+          <t>0.4861</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3295,36 +2541,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>011738</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国全球科技互联网股票(QDII)</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.3996</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3333,32 +2579,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012924</t>
+          <t>011163</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+          <t>博时港股通领先趋势混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.3685</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3371,36 +2617,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012925</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>87.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.2323</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3409,36 +2655,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>86.85</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.2310</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3447,36 +2693,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>011146</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>创金合信气候变化责任投资股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.2213</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -3485,36 +2731,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012589</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方港股通优势企业混合型证券投资基金C</t>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.1885</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -3523,36 +2769,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>011739</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>49.80</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.1758</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -3561,36 +2807,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>86.16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.1693</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -3599,36 +2845,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.1443</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -3637,36 +2883,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>011147</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>创金合信气候变化责任投资股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.1260</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3675,36 +2921,492 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>002555</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3718,96 +3420,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.73</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.23</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.05</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.4</v>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>10.73</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>8.23</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>13.05</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -549,6 +566,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1440,7 +2843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2066,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3414,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03898-时代电气.xlsx
+++ b/数据整理/stocks/港股/03898-时代电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11.97</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>10.73</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>8.23</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>13.05</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -566,6 +583,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013989</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国沪港深优质资产混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深优质资产混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1951,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2843,7 +4016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3469,7 +4642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4817,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
